--- a/Tables/PERMANOVA_PCO_bio_met_fish_bioreg.xlsx
+++ b/Tables/PERMANOVA_PCO_bio_met_fish_bioreg.xlsx
@@ -386,19 +386,19 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>0.319659381154179</v>
+        <v>0.22914666016441</v>
       </c>
       <c r="C2" t="n">
-        <v>0.319659381154179</v>
+        <v>0.22914666016441</v>
       </c>
       <c r="D2" t="n">
-        <v>1.53675739486671</v>
+        <v>1.45647640011177</v>
       </c>
       <c r="E2" t="n">
-        <v>0.00850087061584619</v>
+        <v>0.00784726815629703</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1444</v>
+        <v>0.183</v>
       </c>
     </row>
     <row r="3">
@@ -406,19 +406,19 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.746895083026901</v>
+        <v>0.663177523997795</v>
       </c>
       <c r="C3" t="n">
-        <v>0.746895083026901</v>
+        <v>0.663177523997795</v>
       </c>
       <c r="D3" t="n">
-        <v>3.59068624198322</v>
+        <v>4.21521488506236</v>
       </c>
       <c r="E3" t="n">
-        <v>0.019862575099465</v>
+        <v>0.0227109217402772</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0013</v>
+        <v>0.0006</v>
       </c>
     </row>
     <row r="4">
@@ -426,16 +426,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>6.83448643823725</v>
+        <v>5.7963980110554</v>
       </c>
       <c r="C4" t="n">
-        <v>2.27816214607908</v>
+        <v>1.9321326703518</v>
       </c>
       <c r="D4" t="n">
-        <v>10.9522283126859</v>
+        <v>12.2808058133304</v>
       </c>
       <c r="E4" t="n">
-        <v>0.181753104593504</v>
+        <v>0.198501210974416</v>
       </c>
       <c r="F4" t="n">
         <v>0.0001</v>
@@ -446,19 +446,19 @@
         <v>1</v>
       </c>
       <c r="B5" t="n">
-        <v>0.149533452305817</v>
+        <v>0.120936833529588</v>
       </c>
       <c r="C5" t="n">
-        <v>0.149533452305817</v>
+        <v>0.120936833529588</v>
       </c>
       <c r="D5" t="n">
-        <v>0.718879695572197</v>
+        <v>0.768685189710867</v>
       </c>
       <c r="E5" t="n">
-        <v>0.00397662200997456</v>
+        <v>0.00414155616319791</v>
       </c>
       <c r="F5" t="n">
-        <v>0.6691</v>
+        <v>0.6117</v>
       </c>
     </row>
     <row r="6">
@@ -466,19 +466,19 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>0.44138391806654</v>
+        <v>0.297482721969514</v>
       </c>
       <c r="C6" t="n">
-        <v>0.147127972688847</v>
+        <v>0.0991609073231713</v>
       </c>
       <c r="D6" t="n">
-        <v>0.707315390541534</v>
+        <v>0.630275480455382</v>
       </c>
       <c r="E6" t="n">
-        <v>0.0117379554632535</v>
+        <v>0.0101874785758824</v>
       </c>
       <c r="F6" t="n">
-        <v>0.8316</v>
+        <v>0.8889</v>
       </c>
     </row>
     <row r="7">
@@ -486,19 +486,19 @@
         <v>3</v>
       </c>
       <c r="B7" t="n">
-        <v>1.30052991393528</v>
+        <v>1.10879878102872</v>
       </c>
       <c r="C7" t="n">
-        <v>0.433509971311759</v>
+        <v>0.369599593676241</v>
       </c>
       <c r="D7" t="n">
-        <v>2.08409229773388</v>
+        <v>2.34920764410929</v>
       </c>
       <c r="E7" t="n">
-        <v>0.0345856783257332</v>
+        <v>0.0379714954600026</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0043</v>
+        <v>0.0007</v>
       </c>
     </row>
     <row r="8">
@@ -506,19 +506,19 @@
         <v>3</v>
       </c>
       <c r="B8" t="n">
-        <v>0.353457267177916</v>
+        <v>0.217388815655829</v>
       </c>
       <c r="C8" t="n">
-        <v>0.117819089059305</v>
+        <v>0.0724629385519429</v>
       </c>
       <c r="D8" t="n">
-        <v>0.566413398269762</v>
+        <v>0.460580834160665</v>
       </c>
       <c r="E8" t="n">
-        <v>0.0093996756349247</v>
+        <v>0.00744461354752951</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9442</v>
+        <v>0.9766</v>
       </c>
     </row>
     <row r="9">
@@ -526,14 +526,14 @@
         <v>132</v>
       </c>
       <c r="B9" t="n">
-        <v>27.4571890483802</v>
+        <v>20.7674900461009</v>
       </c>
       <c r="C9" t="n">
-        <v>0.208009007942274</v>
+        <v>0.157329470046219</v>
       </c>
       <c r="D9"/>
       <c r="E9" t="n">
-        <v>0.730183518257298</v>
+        <v>0.711195455382397</v>
       </c>
       <c r="F9"/>
     </row>
@@ -542,7 +542,7 @@
         <v>147</v>
       </c>
       <c r="B10" t="n">
-        <v>37.6031345022841</v>
+        <v>29.2008193935022</v>
       </c>
       <c r="C10"/>
       <c r="D10"/>
